--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_MCPS_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.4739435416183868</v>
+        <v>-0.4572732749695312</v>
       </c>
       <c r="D2">
-        <v>0.6356017914222685</v>
+        <v>0.6519581793136018</v>
       </c>
       <c r="E2">
         <v>2.699053968141509</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-1.149273126411933</v>
+        <v>-1.03291549642101</v>
       </c>
       <c r="D3">
-        <v>0.2506070619227863</v>
+        <v>0.3128653713455611</v>
       </c>
       <c r="E3">
         <v>2.699053968141509</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>-1.48039917107698</v>
+        <v>-1.110987785147979</v>
       </c>
       <c r="D4">
-        <v>0.1389543646489551</v>
+        <v>0.2785686441450714</v>
       </c>
       <c r="E4">
         <v>2.699053968141509</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-1.046415977054685</v>
+        <v>-0.8757224953443458</v>
       </c>
       <c r="D5">
-        <v>0.2955196367711483</v>
+        <v>0.3906423345775045</v>
       </c>
       <c r="E5">
         <v>2.699053968141509</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.8559333541674136</v>
+        <v>-0.9146895828362794</v>
       </c>
       <c r="D6">
-        <v>0.3921567762254576</v>
+        <v>0.3702716348581481</v>
       </c>
       <c r="E6">
         <v>2.884995510246955</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-1.032041414684624</v>
+        <v>-0.9242000448138764</v>
       </c>
       <c r="D7">
-        <v>0.3022013507171373</v>
+        <v>0.3654088199545811</v>
       </c>
       <c r="E7">
         <v>2.884995510246955</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-0.7668090620995409</v>
+        <v>-0.8767077014316346</v>
       </c>
       <c r="D8">
-        <v>0.4433028508371368</v>
+        <v>0.3901184778105622</v>
       </c>
       <c r="E8">
         <v>2.884995510246955</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.229979682317885</v>
+        <v>0.1976640489483034</v>
       </c>
       <c r="D9">
-        <v>0.8181355722885049</v>
+        <v>0.8451228761619962</v>
       </c>
       <c r="E9">
         <v>3.509353127414208</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>0.2463318936996059</v>
+        <v>0.3258952342165121</v>
       </c>
       <c r="D10">
-        <v>0.8054554337466888</v>
+        <v>0.7475832047908151</v>
       </c>
       <c r="E10">
         <v>3.509353127414208</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.00692511099556325</v>
+        <v>-0.006021257901303595</v>
       </c>
       <c r="D11">
-        <v>0.9944754277046535</v>
+        <v>0.995250027690691</v>
       </c>
       <c r="E11">
         <v>3.355991490116047</v>
